--- a/src/main/doc/考吧任务进度v1.0.xlsx
+++ b/src/main/doc/考吧任务进度v1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2715" windowWidth="15330" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="13755" windowHeight="5220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,86 +17,119 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
+  <si>
+    <t>负责人</t>
+  </si>
+  <si>
+    <t>上线时间</t>
+  </si>
+  <si>
+    <t>开发工时</t>
+  </si>
+  <si>
+    <t>开发状态</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>系统用户管理（增删改查）</t>
+  </si>
+  <si>
+    <t>张戴鹏</t>
+  </si>
+  <si>
+    <t>1人/天</t>
+  </si>
+  <si>
+    <t>未开始</t>
+  </si>
+  <si>
+    <t>老师管理（增删改查、授权）</t>
+  </si>
+  <si>
+    <t>杨帆</t>
+  </si>
+  <si>
+    <t>课程管理（增删改查）</t>
+  </si>
+  <si>
+    <t>赵赞峰</t>
+  </si>
+  <si>
+    <t>学生管理（增删改查）</t>
+  </si>
+  <si>
+    <t>王鑫悦</t>
+  </si>
+  <si>
+    <t>当前已知需求工时合计</t>
+  </si>
+  <si>
+    <t>10人/天</t>
+  </si>
+  <si>
+    <t>合计0.5个自然月</t>
+  </si>
+  <si>
+    <t>登录模块</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>张戴鹏</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1人/天</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>未开始</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前用户 个人资料</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵赞峰</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生手机端前端开发</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>老师手机端前端开发</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>老师、学生后台接口</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨帆</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>王鑫悦</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块内容</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
   <si>
     <t>模块名称</t>
-  </si>
-  <si>
-    <t>负责人</t>
-  </si>
-  <si>
-    <t>上线时间</t>
-  </si>
-  <si>
-    <t>开发工时</t>
-  </si>
-  <si>
-    <t>开发状态</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>系统用户管理（增删改查）</t>
-  </si>
-  <si>
-    <t>张戴鹏</t>
-  </si>
-  <si>
-    <t>1人/天</t>
-  </si>
-  <si>
-    <t>未开始</t>
-  </si>
-  <si>
-    <t>老师管理（增删改查、授权）</t>
-  </si>
-  <si>
-    <t>杨帆</t>
-  </si>
-  <si>
-    <t>课程管理（增删改查）</t>
-  </si>
-  <si>
-    <t>赵赞峰</t>
-  </si>
-  <si>
-    <t>学生管理（增删改查）</t>
-  </si>
-  <si>
-    <t>王鑫悦</t>
-  </si>
-  <si>
-    <t>当前已知需求工时合计</t>
-  </si>
-  <si>
-    <t>10人/天</t>
-  </si>
-  <si>
-    <t>合计0.5个自然月</t>
-  </si>
-  <si>
-    <t>登录模块</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>张戴鹏</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1人/天</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>未开始</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前用户 个人资料</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统模块</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -104,27 +137,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>赵赞峰</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生手机端前端开发</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>老师手机端前端开发</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>老师、学生后台接口</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨帆</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>王鑫悦</t>
+    <t>老师pc模块</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -565,234 +578,256 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="47.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="2" customWidth="1"/>
-    <col min="3" max="4" width="19.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.375" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="10.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="19.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.375" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="10">
+        <v>43178</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="10">
+        <v>43178</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
+      <c r="C5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="10">
+        <v>43178</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="10">
+        <v>43179</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="10">
+        <v>43180</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="10">
+        <v>43181</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="10">
-        <v>43178</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="10">
-        <v>43178</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10" t="s">
+      <c r="D9" s="5">
+        <v>43182</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="10"/>
+      <c r="B10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="5">
+        <v>43183</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="10"/>
+      <c r="B11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="D11" s="5">
+        <v>43184</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="10">
-        <v>43178</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="F11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="10">
-        <v>43179</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="10"/>
+      <c r="B12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="5">
+        <v>43185</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="10">
-        <v>43180</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="10" t="s">
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="10"/>
+      <c r="B13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="10">
-        <v>43181</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="5">
-        <v>43182</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="5">
-        <v>43183</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="5">
-        <v>43184</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="5">
-        <v>43185</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="7" t="s">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7" t="s">
+      <c r="F13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/doc/考吧任务进度v1.0.xlsx
+++ b/src/main/doc/考吧任务进度v1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2715" windowWidth="13755" windowHeight="5220"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="18270" windowHeight="5220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
   <si>
     <t>负责人</t>
   </si>
@@ -43,101 +43,138 @@
     <t>1人/天</t>
   </si>
   <si>
+    <t>老师管理（增删改查、授权）</t>
+  </si>
+  <si>
+    <t>杨帆</t>
+  </si>
+  <si>
+    <t>课程管理（增删改查）</t>
+  </si>
+  <si>
+    <t>赵赞峰</t>
+  </si>
+  <si>
+    <t>学生管理（增删改查）</t>
+  </si>
+  <si>
+    <t>王鑫悦</t>
+  </si>
+  <si>
+    <t>当前已知需求工时合计</t>
+  </si>
+  <si>
+    <t>10人/天</t>
+  </si>
+  <si>
+    <t>登录模块</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>张戴鹏</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1人/天</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>未开始</t>
-  </si>
-  <si>
-    <t>老师管理（增删改查、授权）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵赞峰</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>杨帆</t>
-  </si>
-  <si>
-    <t>课程管理（增删改查）</t>
-  </si>
-  <si>
-    <t>赵赞峰</t>
-  </si>
-  <si>
-    <t>学生管理（增删改查）</t>
-  </si>
-  <si>
-    <t>王鑫悦</t>
-  </si>
-  <si>
-    <t>当前已知需求工时合计</t>
-  </si>
-  <si>
-    <t>10人/天</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块内容</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>张戴鹏</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨帆</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前用户 个人资料</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统总体布局</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统搭建、系统前台页面设计</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1人/天</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库创建</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统模块</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库创建</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>老师pc模块</t>
+  </si>
+  <si>
+    <t xml:space="preserve">老师用户 个人资料 账号登录  </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程树列表展示</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨帆、张戴鹏</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2人/天</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>题库（增删改查）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生手机端</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在进行中</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>合计0.5个自然月</t>
-  </si>
-  <si>
-    <t>登录模块</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>张戴鹏</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1人/天</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>未开始</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前用户 个人资料</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵赞峰</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生手机端前端开发</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>老师手机端前端开发</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>老师、学生后台接口</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨帆</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>王鑫悦</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块内容</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统模块</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>老师pc开发</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>老师pc模块</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -148,7 +185,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,6 +226,19 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -243,7 +293,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -261,21 +311,27 @@
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -578,15 +634,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="29.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.375" style="2" customWidth="1"/>
     <col min="4" max="5" width="19.25" style="2" customWidth="1"/>
@@ -597,10 +653,10 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -618,216 +674,268 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="8">
+        <v>43177</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="8">
+        <v>43178</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="8"/>
+      <c r="B4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="C4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="8">
+        <v>43178</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="10">
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="8"/>
+      <c r="B5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="8">
         <v>43178</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="8">
+        <v>43178</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="8">
+        <v>43179</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="8">
+        <v>43180</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="8">
+        <v>43181</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="8">
+        <v>43182</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="8">
+        <v>43183</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="8">
+        <v>43184</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="9">
+        <v>43185</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5">
+        <v>43186</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="10">
-        <v>43178</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="10">
-        <v>43178</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="10">
-        <v>43179</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="10">
-        <v>43180</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="10" t="s">
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="8"/>
+      <c r="B15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="10">
-        <v>43181</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="5">
-        <v>43182</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10"/>
-      <c r="B10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="5">
-        <v>43183</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="10"/>
-      <c r="B11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="5">
-        <v>43184</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="10"/>
-      <c r="B12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="5">
-        <v>43185</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="10"/>
-      <c r="B13" s="7" t="s">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+      <c r="F15" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/doc/考吧任务进度v1.0.xlsx
+++ b/src/main/doc/考吧任务进度v1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2715" windowWidth="18270" windowHeight="5220"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="13695" windowHeight="4560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="55">
   <si>
     <t>负责人</t>
   </si>
@@ -64,9 +64,6 @@
     <t>当前已知需求工时合计</t>
   </si>
   <si>
-    <t>10人/天</t>
-  </si>
-  <si>
     <t>登录模块</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -83,10 +80,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>未开始</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>赵赞峰</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -166,7 +159,58 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>合计0.5个自然月</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>学生手机端</t>
+  </si>
+  <si>
+    <t>登录模块 个人资料</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统页面前台搭建</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>王鑫悦</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程管理（增、删）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>专项练习模块（练习、背题模式）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合练习模块（练习、背题模式）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>错题本（以人为单位）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨帆</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>张戴鹏</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵赞峰</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1人/天</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -174,7 +218,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>合计0.5个自然月</t>
+    <t>19人/天</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -634,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -653,10 +697,10 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -676,81 +720,81 @@
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" s="8">
         <v>43177</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="8">
         <v>43178</v>
       </c>
       <c r="E3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8"/>
       <c r="B4" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" s="8">
         <v>43178</v>
       </c>
       <c r="E4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8"/>
       <c r="B5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="D5" s="8">
         <v>43178</v>
       </c>
       <c r="E5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -768,7 +812,7 @@
         <v>7</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -785,7 +829,7 @@
         <v>7</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -802,7 +846,7 @@
         <v>7</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -819,123 +863,227 @@
         <v>7</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" s="8">
         <v>43182</v>
       </c>
       <c r="E10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8"/>
       <c r="B11" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11" s="8">
         <v>43183</v>
       </c>
       <c r="E11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8"/>
       <c r="B12" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D12" s="8">
         <v>43184</v>
       </c>
       <c r="E12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="8">
+        <v>43184</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="9">
+        <v>43185</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="9">
+        <v>43185</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="9">
+        <v>43186</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="9">
+        <v>43187</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="9">
+        <v>43188</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="9">
+        <v>43189</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="9">
-        <v>43185</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5">
-        <v>43186</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="8"/>
-      <c r="B15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
